--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1107443.675748305</v>
+        <v>-1056814.793960559</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17424043.67672896</v>
+        <v>16759483.4356938</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10063367.34696537</v>
+        <v>10055132.39801052</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>364.1891594372714</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>346.6548893412473</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>368.2399580186952</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>150.0344930061165</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>84.85899356878446</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,13 +874,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>139.9545931587428</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>55.98065707207375</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>131.6150045159774</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>105.658421273735</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>63.30706734560965</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>36.13411232185945</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>35.51678257079473</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>302.1199325601193</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,22 +1421,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>173.0943338214827</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>155.2022955251545</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>260.4356504767629</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>198.6534743970087</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>3.42339212608458</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>43.48898701015912</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561526</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2713,13 +2713,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398613</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2761,7 +2761,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>193.1657375857784</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3187,25 +3187,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742933988</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S34" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T34" t="n">
         <v>227.1849416185819</v>
@@ -3253,7 +3253,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="35">
@@ -3424,25 +3424,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432351</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934494</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S37" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T37" t="n">
         <v>227.1849416185819</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432339</v>
+        <v>71.53763939432343</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934494</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3898,25 +3898,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934494</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934494</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.069156190556</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>1132.967087414384</v>
+        <v>1286.893596231698</v>
       </c>
       <c r="D2" t="n">
-        <v>1101.097706629232</v>
+        <v>858.3119219689659</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>429.7302477062342</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>405.903222155846</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4334,13 +4334,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>874.0494664914149</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1193.574042295003</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1189.32832263506</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>786.209943524083</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="C4" t="n">
-        <v>786.209943524083</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>119.6598237215927</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W4" t="n">
-        <v>1013.629614209975</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X4" t="n">
-        <v>1013.629614209975</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y4" t="n">
-        <v>786.209943524083</v>
+        <v>119.6598237215927</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>947.0019290635947</v>
+        <v>1011.083485998248</v>
       </c>
       <c r="C5" t="n">
-        <v>518.4202548008631</v>
+        <v>976.9814172220756</v>
       </c>
       <c r="D5" t="n">
-        <v>377.0519788829411</v>
+        <v>541.07163239652</v>
       </c>
       <c r="E5" t="n">
-        <v>347.3176380816403</v>
+        <v>511.3372915952193</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>454.7911733405993</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6480294167811</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.390636219588</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.390636219588</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.390636219588</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.390636219588</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.2716406787</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.014247481507</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.513033440101</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="U5" t="n">
-        <v>1393.464329137293</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="V5" t="n">
-        <v>1393.464329137293</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="W5" t="n">
-        <v>1392.64927858873</v>
+        <v>2264.811643604192</v>
       </c>
       <c r="X5" t="n">
-        <v>1377.547219208445</v>
+        <v>1845.669180183503</v>
       </c>
       <c r="Y5" t="n">
-        <v>969.2610955080985</v>
+        <v>1437.383056483156</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.599081705642</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>1406.142620542285</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.052331688838</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>1216.931917015792</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>1133.548078631953</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>1048.162988898137</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.42733671435</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.491009874807</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.04933484102</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>2011.755381466743</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>2011.755381466743</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>2011.755381466743</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>2011.755381466743</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>2011.755381466743</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>2011.755381466743</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.494320098819</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.211660641542</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.033016972143</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>2299.696469972112</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.578952034111</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.256197767305</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.388762006185</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>1633.902982785406</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.451502575745</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>959.8897910589695</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0117982604922</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2537945112294</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.5467404729856</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9554654988133</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0532911891878</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386317</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.5871734550487</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.3456280261843</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.5555097941453</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.039376975058</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.298180132703</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2153.967429358484</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.474323328826</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193158</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.24927689853</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.007908196527</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2489.007908196527</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2356.063459190489</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>2069.10795106092</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1797.081546647211</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>1551.689791980624</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>1324.270121294732</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2138.847808713649</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>2032.122130659371</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>1596.212345833816</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>1162.437600992111</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>734.5701714013187</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>333.1723400245826</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>44.04218546779886</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>43.62539609493886</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.8800835478567</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>932.3871866441492</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>932.3871866441492</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>932.3871866441492</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>932.3871866441492</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>932.3871866441492</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1472.251463319018</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2012.115739993886</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2181.269804746943</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2181.269804746943</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2181.269804746943</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="U8" t="n">
-        <v>2181.269804746943</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="V8" t="n">
-        <v>2181.269804746943</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>2180.45475419838</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>2165.352694818095</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.106975158153</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.7971410862317</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.340679922874</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.2503910694272</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.1299763963809</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7461380125425</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.3610482787264</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.62539609493886</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.68906925539646</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.2473942216088</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>934.1116708964772</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.82810280454</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.82810280454</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.82810280454</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.82810280454</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.82810280454</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.692379479408</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.865157573748</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.409720022131</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.231076352733</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.894529352701</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.7770114147</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.4542571478942</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.5868213867741</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.1010421659948</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.6862109671275</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>80.12449945035246</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>43.62539609493886</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>43.62539609493886</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>43.62539609493886</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>43.62539609493886</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>43.62539609493886</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>43.62539609493886</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>43.62539609493886</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>94.14110944430101</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>512.3509912122621</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>971.8348583931751</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1414.09366155082</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1833.762910776601</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2181.269804746943</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2181.269804746943</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2159.851983452315</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2000.610614750311</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1754.731168328767</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1476.298167581872</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1189.342659452302</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>917.3162550385939</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>671.9245003720064</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.5048296861146</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2072.670628882131</v>
+        <v>2524.205911056827</v>
       </c>
       <c r="C11" t="n">
-        <v>1767.498979831506</v>
+        <v>2086.06343824025</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.58919500595</v>
+        <v>1650.153653414695</v>
       </c>
       <c r="E11" t="n">
-        <v>897.8144501642456</v>
+        <v>1216.37890857299</v>
       </c>
       <c r="F11" t="n">
-        <v>469.9470205734533</v>
+        <v>788.5114789821978</v>
       </c>
       <c r="G11" t="n">
-        <v>68.54918919671717</v>
+        <v>387.1136476054616</v>
       </c>
       <c r="H11" t="n">
-        <v>68.54918919671717</v>
+        <v>97.98349304867786</v>
       </c>
       <c r="I11" t="n">
-        <v>68.13239982385717</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J11" t="n">
-        <v>68.13239982385717</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K11" t="n">
-        <v>902.4826917820352</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L11" t="n">
-        <v>1188.672882580635</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M11" t="n">
-        <v>1188.672882580635</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N11" t="n">
-        <v>1188.672882580635</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O11" t="n">
-        <v>2031.811330400868</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="P11" t="n">
-        <v>2860.121205234263</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q11" t="n">
-        <v>3406.619991192858</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R11" t="n">
-        <v>3406.619991192858</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S11" t="n">
-        <v>3322.968117376695</v>
+        <v>4794.68330997473</v>
       </c>
       <c r="T11" t="n">
-        <v>3322.968117376695</v>
+        <v>4574.616082847769</v>
       </c>
       <c r="U11" t="n">
-        <v>3322.968117376695</v>
+        <v>4315.393780164785</v>
       </c>
       <c r="V11" t="n">
-        <v>3322.968117376695</v>
+        <v>3952.776830098612</v>
       </c>
       <c r="W11" t="n">
-        <v>2918.112662787728</v>
+        <v>3777.934068662771</v>
       </c>
       <c r="X11" t="n">
-        <v>2498.970199367039</v>
+        <v>3358.791605242081</v>
       </c>
       <c r="Y11" t="n">
-        <v>2498.970199367039</v>
+        <v>2950.505481541735</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574.3041448151499</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C12" t="n">
-        <v>467.8476836517922</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D12" t="n">
-        <v>372.7573947983455</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E12" t="n">
-        <v>278.6369801252992</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F12" t="n">
-        <v>195.2531417414608</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G12" t="n">
-        <v>109.8680520076447</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H12" t="n">
-        <v>68.13239982385717</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19607298431478</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J12" t="n">
-        <v>418.7543979505271</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K12" t="n">
-        <v>418.7543979505271</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L12" t="n">
-        <v>418.7543979505271</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M12" t="n">
-        <v>418.7543979505271</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N12" t="n">
-        <v>418.7543979505271</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O12" t="n">
-        <v>418.7543979505271</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P12" t="n">
-        <v>1073.460444576251</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.199383208326</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R12" t="n">
-        <v>1731.372161302666</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S12" t="n">
-        <v>1667.916723751049</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T12" t="n">
-        <v>1537.738080081651</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U12" t="n">
-        <v>1361.401533081619</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.284015143618</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W12" t="n">
-        <v>976.9612608768123</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0938251156923</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y12" t="n">
-        <v>695.6080458949131</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1058.530611210414</v>
+        <v>1176.624864287699</v>
       </c>
       <c r="C13" t="n">
-        <v>885.9688996936389</v>
+        <v>1004.063152770924</v>
       </c>
       <c r="D13" t="n">
-        <v>720.0909068951617</v>
+        <v>838.1851599724469</v>
       </c>
       <c r="E13" t="n">
-        <v>550.3329031458989</v>
+        <v>668.4271562231842</v>
       </c>
       <c r="F13" t="n">
-        <v>373.625849107655</v>
+        <v>491.7201021849403</v>
       </c>
       <c r="G13" t="n">
-        <v>208.0345741334826</v>
+        <v>326.128827210768</v>
       </c>
       <c r="H13" t="n">
-        <v>68.13239982385717</v>
+        <v>186.2266529011425</v>
       </c>
       <c r="I13" t="n">
-        <v>68.13239982385767</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J13" t="n">
-        <v>154.7120849885475</v>
+        <v>184.1463888405077</v>
       </c>
       <c r="K13" t="n">
-        <v>429.4705395596831</v>
+        <v>458.9048434116433</v>
       </c>
       <c r="L13" t="n">
-        <v>847.6804213276441</v>
+        <v>877.1147251796043</v>
       </c>
       <c r="M13" t="n">
-        <v>1307.164288508557</v>
+        <v>1336.598592360517</v>
       </c>
       <c r="N13" t="n">
-        <v>1749.423091666202</v>
+        <v>1778.857395518162</v>
       </c>
       <c r="O13" t="n">
-        <v>2169.092340891983</v>
+        <v>2198.526644743943</v>
       </c>
       <c r="P13" t="n">
-        <v>2516.599234862325</v>
+        <v>2546.033538714285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2684.792009726657</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="R13" t="n">
-        <v>2684.792009726657</v>
+        <v>2692.808492283989</v>
       </c>
       <c r="S13" t="n">
-        <v>2684.792009726657</v>
+        <v>2533.567123581985</v>
       </c>
       <c r="T13" t="n">
-        <v>2438.912563305113</v>
+        <v>2287.687677160441</v>
       </c>
       <c r="U13" t="n">
-        <v>2282.142567825158</v>
+        <v>2287.687677160441</v>
       </c>
       <c r="V13" t="n">
-        <v>1995.187059695589</v>
+        <v>2113.281312772874</v>
       </c>
       <c r="W13" t="n">
-        <v>1723.160655281881</v>
+        <v>1841.254908359166</v>
       </c>
       <c r="X13" t="n">
-        <v>1477.768900615293</v>
+        <v>1595.863153692578</v>
       </c>
       <c r="Y13" t="n">
-        <v>1250.349229929401</v>
+        <v>1368.443483006686</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5285,40 +5285,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136696</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405613</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D16" t="n">
-        <v>754.219347342084</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.315500142511</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>2029.315500142511</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1757.289095728803</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.897341062215</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376324</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5516,31 +5516,31 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1039.550377927472</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2114.610344180331</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3271.658179390882</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5552,13 +5552,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903953</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736203</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>632.556342075143</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258803</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>286.0912842876365</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752035</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.60800300514</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461862</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109383</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5944,7 +5944,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
         <v>1617.386921419177</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,19 +5990,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6142,13 +6142,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6409,25 +6409,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457407</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710512</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1978.07327505821</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1706.046870644502</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.655115977914</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1233.235445292023</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6835,19 +6835,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886292</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
         <v>760.880759503028</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666415</v>
+        <v>607.5224631666414</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412738</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799776</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
         <v>174.5210820832282</v>
@@ -6856,13 +6856,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773248</v>
+        <v>495.7456864773249</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806456</v>
+        <v>930.0289214806457</v>
       </c>
       <c r="M34" t="n">
         <v>1405.586141896919</v>
@@ -6877,22 +6877,22 @@
         <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
         <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.64750088558</v>
+        <v>2699.647500885579</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.167761876911</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
         <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W34" t="n">
         <v>1681.951970825366</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,25 +6938,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7072,34 +7072,34 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886288</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030275</v>
+        <v>760.880759503028</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666409</v>
+        <v>607.5224631666414</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412732</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G37" t="n">
-        <v>298.023548979977</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832276</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773248</v>
+        <v>495.7456864773249</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806456</v>
+        <v>930.0289214806457</v>
       </c>
       <c r="M37" t="n">
         <v>1405.586141896919</v>
@@ -7114,7 +7114,7 @@
         <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
         <v>2842.489162174707</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
@@ -7160,16 +7160,16 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197257</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,25 +7178,25 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2524.219518297465</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2524.219518297465</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3504.399184867771</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4332.709059701167</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7309,13 +7309,13 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080657</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716791</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
         <v>442.5209799463113</v>
@@ -7324,19 +7324,19 @@
         <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882657</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.051549882363</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856839</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7388,7 +7388,7 @@
         <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803011</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
         <v>1584.138034390331</v>
@@ -7397,16 +7397,16 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835861</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7433,10 +7433,10 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
         <v>4607.415497673521</v>
@@ -7448,13 +7448,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278743</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463121</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
         <v>293.3294123850158</v>
@@ -7564,7 +7564,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7576,43 +7576,43 @@
         <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301956</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
         <v>1584.13803439033</v>
@@ -7634,16 +7634,16 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7670,7 +7670,7 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387606</v>
@@ -7682,13 +7682,13 @@
         <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
         <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
         <v>2835.290740278742</v>
@@ -7719,10 +7719,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
         <v>448.1887018024878</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463121</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
         <v>293.3294123850158</v>
@@ -7801,16 +7801,16 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7822,7 +7822,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
         <v>2842.813139461497</v>
@@ -7831,13 +7831,13 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231237</v>
@@ -7849,7 +7849,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>236.2898988798406</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.4167745482895</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.3343479384976</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.06447625372277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>458.087982925548</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>545.3174511867358</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.3174511867358</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>545.3174511867358</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>116.8852847556187</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.3174511867358</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>51.02597308016378</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>289.0810008066669</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982145</v>
+        <v>274.7698556067166</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9164,22 +9164,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9638,22 +9638,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10601,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>551.1374990805316</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>29.14389504427353</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>83.20143014298566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>131.6411155282917</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>227.7125662215943</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>120.4463752142713</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.138899140769316e-12</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>15.21302026266283</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>44.28436272291293</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973306849</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>54.79268646174603</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>90.92021546249546</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>883503.6880126161</v>
+        <v>698810.2453829041</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>883503.6880126161</v>
+        <v>888490.2699245429</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>885985.9264695426</v>
+        <v>888492.288835683</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662150.2994758206</v>
+        <v>852642.002648168</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>883021.3205826177</v>
+        <v>883021.3205826178</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>883021.3205826178</v>
+        <v>883021.3205826177</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>883021.3205826178</v>
+        <v>883021.3205826177</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67018.41498630104</v>
+        <v>52811.22709170785</v>
       </c>
       <c r="C2" t="n">
+        <v>67018.41498630102</v>
+      </c>
+      <c r="D2" t="n">
         <v>67018.41498630105</v>
       </c>
-      <c r="D2" t="n">
-        <v>67018.41498630104</v>
-      </c>
       <c r="E2" t="n">
-        <v>49384.27008867096</v>
+        <v>63591.45798326416</v>
       </c>
       <c r="F2" t="n">
         <v>65857.19801716904</v>
@@ -26332,13 +26332,13 @@
         <v>65857.19801716902</v>
       </c>
       <c r="I2" t="n">
+        <v>65857.19801716901</v>
+      </c>
+      <c r="J2" t="n">
+        <v>65857.19801716901</v>
+      </c>
+      <c r="K2" t="n">
         <v>65857.19801716902</v>
-      </c>
-      <c r="J2" t="n">
-        <v>65857.19801716902</v>
-      </c>
-      <c r="K2" t="n">
-        <v>65857.19801716904</v>
       </c>
       <c r="L2" t="n">
         <v>67018.41498630107</v>
@@ -26353,7 +26353,7 @@
         <v>67018.41498630107</v>
       </c>
       <c r="P2" t="n">
-        <v>67018.41498630105</v>
+        <v>67018.41498630108</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78545.2414452449</v>
       </c>
       <c r="D3" t="n">
-        <v>37592.93764066573</v>
+        <v>30.57595066340842</v>
       </c>
       <c r="E3" t="n">
-        <v>91465.65199216212</v>
+        <v>164835.5352679186</v>
       </c>
       <c r="F3" t="n">
-        <v>122233.5690936863</v>
+        <v>16812.40227510018</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62571.54417370998</v>
       </c>
       <c r="L3" t="n">
-        <v>43618.0444336793</v>
+        <v>13013.48053938585</v>
       </c>
       <c r="M3" t="n">
-        <v>76340.54196576696</v>
+        <v>137577.7007378521</v>
       </c>
       <c r="N3" t="n">
-        <v>90115.6967443646</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>116560.425767305</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130777.8086871445</v>
       </c>
       <c r="D4" t="n">
-        <v>156217.3708066402</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>20759.43197279098</v>
+        <v>26731.64033170579</v>
       </c>
       <c r="F4" t="n">
         <v>27684.07875020268</v>
@@ -26433,7 +26433,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020271</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26445,16 +26445,16 @@
         <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
+        <v>33026.43656683595</v>
+      </c>
+      <c r="M4" t="n">
         <v>33026.43656683594</v>
       </c>
-      <c r="M4" t="n">
-        <v>33026.43656683593</v>
-      </c>
       <c r="N4" t="n">
-        <v>42419.67665353609</v>
+        <v>42419.67665353612</v>
       </c>
       <c r="O4" t="n">
-        <v>42419.67665353609</v>
+        <v>42419.67665353611</v>
       </c>
       <c r="P4" t="n">
         <v>42419.67665353611</v>
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74206.53989253601</v>
       </c>
       <c r="D5" t="n">
-        <v>66782.90103215353</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>51780.62386613144</v>
+        <v>74150.69479362157</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
+        <v>75515.61472608973</v>
+      </c>
+      <c r="O5" t="n">
         <v>75515.61472608971</v>
       </c>
-      <c r="O5" t="n">
-        <v>75515.61472608973</v>
-      </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316030.0602710933</v>
+        <v>-265649.4312304212</v>
       </c>
       <c r="C6" t="n">
-        <v>-173838.7596113834</v>
+        <v>-216511.1750386244</v>
       </c>
       <c r="D6" t="n">
-        <v>-193574.7944931585</v>
+        <v>-137981.9857581399</v>
       </c>
       <c r="E6" t="n">
-        <v>-114621.4377424136</v>
+        <v>-202194.9515500426</v>
       </c>
       <c r="F6" t="n">
-        <v>-161778.6884325124</v>
+        <v>-56380.74595330899</v>
       </c>
       <c r="G6" t="n">
-        <v>-39545.11933882616</v>
+        <v>-39568.34367820882</v>
       </c>
       <c r="H6" t="n">
-        <v>-39545.11933882619</v>
+        <v>-39568.34367820882</v>
       </c>
       <c r="I6" t="n">
-        <v>-39545.11933882617</v>
+        <v>-39568.34367820883</v>
       </c>
       <c r="J6" t="n">
-        <v>-150559.5846838164</v>
+        <v>-150582.809023199</v>
       </c>
       <c r="K6" t="n">
-        <v>-39545.11933882616</v>
+        <v>-102139.8878519188</v>
       </c>
       <c r="L6" t="n">
-        <v>-88709.22455247483</v>
+        <v>-58104.6606581814</v>
       </c>
       <c r="M6" t="n">
-        <v>-121431.7220845625</v>
+        <v>-182668.8808566476</v>
       </c>
       <c r="N6" t="n">
-        <v>-141032.5731376893</v>
+        <v>-50916.87639332478</v>
       </c>
       <c r="O6" t="n">
         <v>-50916.87639332475</v>
       </c>
       <c r="P6" t="n">
-        <v>-50916.87639332478</v>
+        <v>-50916.87639332474</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="D4" t="n">
-        <v>545.3174511867358</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>851.6549977982146</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.1209170281853</v>
       </c>
       <c r="D4" t="n">
-        <v>121.0215936666315</v>
+        <v>0.09843205956735801</v>
       </c>
       <c r="E4" t="n">
-        <v>306.3375466114788</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="F4" t="n">
-        <v>426.6055055865305</v>
+        <v>58.67670743702206</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281853</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666315</v>
+        <v>0.09843205956735801</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114788</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
-        <v>367.9287981495082</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281853</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666315</v>
+        <v>0.09843205956735801</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114788</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6055055865305</v>
+        <v>58.67670743702206</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>69.57188865113955</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>82.78210805204043</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>14.18471986437604</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D5" t="n">
-        <v>291.5960938185572</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>367.6080982228106</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,10 +27676,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>144.0336662234483</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>328.1026268146759</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>154.5594875100821</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>128.0851005486331</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>248.5691704774791</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.926996186246196e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.2357103387485</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34702,16 +34702,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>236.2898988798406</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.4167745482895</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.3343479384976</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.4167745482896</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.06447625372277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>458.087982925548</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>545.3174511867358</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.3174511867358</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>545.3174511867358</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>116.8852847556187</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.3174511867358</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>51.02597308016378</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>289.0810008066669</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982145</v>
+        <v>274.7698556067166</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512938</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,22 +35884,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36358,22 +36358,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37230,22 +37230,22 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M34" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N34" t="n">
-        <v>462.9617741343477</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-6.039338929673061e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37467,22 +37467,22 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343477</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37561,10 +37561,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>551.1374990805316</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033056</v>
+        <v>480.3608287033063</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343477</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
         <v>440.1440428900419</v>
@@ -37956,7 +37956,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38187,13 +38187,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552555</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
